--- a/Data/03_Arbeid og næringsliv/01_Arbeidsliv/NAV/Arbeidsledighet/2025-09-05.xlsx
+++ b/Data/03_Arbeid og næringsliv/01_Arbeidsliv/NAV/Arbeidsledighet/2025-09-05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/03_Arbeid og næringsliv/01_Arbeidsliv/NAV/Arbeidsledighet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_CE493A7053DE9F591421915377E3F37AE3F58799" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_CE493A7053DE9F591421915377E3F37AE3F58799" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D075907-E327-4B5C-BE9B-0C0116E945F7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Landet" sheetId="1" r:id="rId1"/>
@@ -296,11 +296,13 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -709,11 +711,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
@@ -1020,7 +1022,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
@@ -4887,7 +4889,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" customWidth="1"/>
@@ -8846,7 +8848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
@@ -9191,7 +9193,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
@@ -14294,9 +14296,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:G234"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" customWidth="1"/>
@@ -14339,13 +14343,13 @@
         <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F3" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14359,13 +14363,13 @@
         <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F4" s="5">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14379,13 +14383,13 @@
         <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F5" s="5">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14399,13 +14403,13 @@
         <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F6" s="5">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14419,13 +14423,13 @@
         <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F7" s="5">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14439,10 +14443,10 @@
         <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F8" s="5">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>59</v>
@@ -14459,13 +14463,13 @@
         <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F9" s="5">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14479,13 +14483,13 @@
         <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F10" s="5">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14499,13 +14503,13 @@
         <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F11" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14519,13 +14523,13 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F12" s="5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14539,13 +14543,13 @@
         <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14559,13 +14563,13 @@
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F14" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14579,13 +14583,13 @@
         <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F15" s="5">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14599,13 +14603,13 @@
         <v>32</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F16" s="5">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14619,13 +14623,13 @@
         <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F17" s="5">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14639,10 +14643,10 @@
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>54</v>
@@ -14659,13 +14663,13 @@
         <v>32</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="5">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14679,13 +14683,13 @@
         <v>32</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F20" s="5">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14699,13 +14703,13 @@
         <v>32</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F21" s="5">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14719,13 +14723,13 @@
         <v>32</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F22" s="5">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14739,13 +14743,13 @@
         <v>32</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F23" s="5">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14759,13 +14763,13 @@
         <v>32</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F24" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14779,13 +14783,13 @@
         <v>32</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F25" s="5">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14799,13 +14803,13 @@
         <v>32</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F26" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14819,13 +14823,13 @@
         <v>32</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F27" s="5">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14839,13 +14843,13 @@
         <v>32</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F28" s="5">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14859,10 +14863,10 @@
         <v>32</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F29" s="5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>65</v>
@@ -14879,13 +14883,13 @@
         <v>32</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F30" s="5">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14899,13 +14903,13 @@
         <v>32</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F31" s="5">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14919,13 +14923,13 @@
         <v>32</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F32" s="5">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14939,13 +14943,13 @@
         <v>32</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F33" s="5">
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14959,13 +14963,13 @@
         <v>32</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F34" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14979,13 +14983,13 @@
         <v>32</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F35" s="5">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14999,13 +15003,13 @@
         <v>32</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F36" s="5">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15019,13 +15023,13 @@
         <v>32</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F37" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15039,10 +15043,10 @@
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F38" s="5">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>59</v>
@@ -15059,10 +15063,10 @@
         <v>32</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F39" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>60</v>
@@ -15079,13 +15083,13 @@
         <v>32</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F40" s="5">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15099,13 +15103,13 @@
         <v>32</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F41" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15119,13 +15123,13 @@
         <v>32</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F42" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15139,13 +15143,13 @@
         <v>32</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F43" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15159,13 +15163,13 @@
         <v>32</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15179,13 +15183,13 @@
         <v>32</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F45" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15199,13 +15203,13 @@
         <v>32</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F46" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15219,13 +15223,13 @@
         <v>32</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F47" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15239,13 +15243,13 @@
         <v>32</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F48" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15259,13 +15263,13 @@
         <v>32</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F49" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15279,13 +15283,13 @@
         <v>32</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F50" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15299,13 +15303,13 @@
         <v>32</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F51" s="5">
         <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15319,13 +15323,13 @@
         <v>32</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F52" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15339,13 +15343,13 @@
         <v>32</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F53" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15359,13 +15363,13 @@
         <v>32</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F54" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15379,13 +15383,13 @@
         <v>32</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F55" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15399,13 +15403,13 @@
         <v>32</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F56" s="5">
         <v>1</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15419,13 +15423,13 @@
         <v>32</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F57" s="5">
         <v>1</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15439,13 +15443,13 @@
         <v>32</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F58" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15459,13 +15463,13 @@
         <v>32</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F59" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15479,13 +15483,13 @@
         <v>32</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F60" s="5">
         <v>1</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15499,13 +15503,13 @@
         <v>32</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F61" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15519,13 +15523,13 @@
         <v>32</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F62" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15539,13 +15543,13 @@
         <v>32</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F63" s="5">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15559,13 +15563,13 @@
         <v>32</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F64" s="5">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15582,10 +15586,10 @@
         <v>39</v>
       </c>
       <c r="F65" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15599,13 +15603,13 @@
         <v>32</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F66" s="5">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15619,13 +15623,13 @@
         <v>32</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F67" s="5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15639,13 +15643,13 @@
         <v>32</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F68" s="5">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15659,13 +15663,13 @@
         <v>32</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F69" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15679,13 +15683,13 @@
         <v>32</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F70" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15699,13 +15703,13 @@
         <v>32</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F71" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15719,13 +15723,13 @@
         <v>32</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F72" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15739,13 +15743,13 @@
         <v>32</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F73" s="5">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15759,13 +15763,13 @@
         <v>32</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F74" s="5">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15779,13 +15783,13 @@
         <v>32</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F75" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15799,13 +15803,13 @@
         <v>32</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F76" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15819,10 +15823,10 @@
         <v>32</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F77" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>55</v>
@@ -15839,10 +15843,10 @@
         <v>32</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F78" s="5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>56</v>
@@ -15859,13 +15863,13 @@
         <v>32</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F79" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15879,13 +15883,13 @@
         <v>32</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F80" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15899,13 +15903,13 @@
         <v>32</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F81" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15919,10 +15923,10 @@
         <v>32</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F82" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>60</v>
@@ -15939,13 +15943,13 @@
         <v>32</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F83" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15959,13 +15963,13 @@
         <v>32</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F84" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15982,10 +15986,10 @@
         <v>40</v>
       </c>
       <c r="F85" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15999,13 +16003,13 @@
         <v>32</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F86" s="5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16019,13 +16023,13 @@
         <v>32</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F87" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16039,13 +16043,13 @@
         <v>32</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F88" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16059,10 +16063,10 @@
         <v>32</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F89" s="5">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>67</v>
@@ -16079,13 +16083,13 @@
         <v>32</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F90" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16099,13 +16103,13 @@
         <v>32</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F91" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16119,13 +16123,13 @@
         <v>32</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F92" s="5">
         <v>3</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16139,13 +16143,13 @@
         <v>32</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F93" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16159,13 +16163,13 @@
         <v>32</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F94" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16179,10 +16183,10 @@
         <v>32</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F95" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>58</v>
@@ -16199,13 +16203,13 @@
         <v>32</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F96" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16219,13 +16223,13 @@
         <v>32</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F97" s="5">
         <v>3</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16239,13 +16243,13 @@
         <v>32</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F98" s="5">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16259,13 +16263,13 @@
         <v>32</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F99" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16279,13 +16283,13 @@
         <v>32</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F100" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16299,13 +16303,13 @@
         <v>32</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F101" s="5">
         <v>3</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16319,13 +16323,13 @@
         <v>32</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F102" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16339,13 +16343,13 @@
         <v>32</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F103" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16359,13 +16363,13 @@
         <v>32</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F104" s="5">
         <v>3</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16379,13 +16383,13 @@
         <v>32</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F105" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16399,13 +16403,13 @@
         <v>32</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F106" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16419,13 +16423,13 @@
         <v>32</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F107" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16439,13 +16443,13 @@
         <v>32</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F108" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16459,13 +16463,13 @@
         <v>32</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F109" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16479,10 +16483,10 @@
         <v>32</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F110" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>58</v>
@@ -16502,10 +16506,10 @@
         <v>42</v>
       </c>
       <c r="F111" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16519,13 +16523,13 @@
         <v>32</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F112" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16539,13 +16543,13 @@
         <v>32</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F113" s="5">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16559,13 +16563,13 @@
         <v>32</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F114" s="5">
         <v>4</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16579,13 +16583,13 @@
         <v>32</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F115" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16599,13 +16603,13 @@
         <v>32</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F116" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16619,13 +16623,13 @@
         <v>32</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F117" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16639,13 +16643,13 @@
         <v>32</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F118" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16659,13 +16663,13 @@
         <v>32</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F119" s="5">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16679,13 +16683,13 @@
         <v>32</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F120" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16699,13 +16703,13 @@
         <v>32</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F121" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16722,10 +16726,10 @@
         <v>43</v>
       </c>
       <c r="F122" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="123" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16739,13 +16743,13 @@
         <v>32</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F123" s="5">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16759,13 +16763,13 @@
         <v>32</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F124" s="5">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16779,13 +16783,13 @@
         <v>32</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F125" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16799,13 +16803,13 @@
         <v>32</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F126" s="5">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16819,13 +16823,13 @@
         <v>32</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F127" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16839,13 +16843,13 @@
         <v>32</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F128" s="5">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="129" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16859,13 +16863,13 @@
         <v>32</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F129" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16879,13 +16883,13 @@
         <v>32</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F130" s="5">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16899,10 +16903,10 @@
         <v>32</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F131" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>64</v>
@@ -16919,13 +16923,13 @@
         <v>32</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F132" s="5">
         <v>6</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16939,13 +16943,13 @@
         <v>32</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F133" s="5">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="134" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16959,13 +16963,13 @@
         <v>32</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F134" s="5">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="135" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16979,13 +16983,13 @@
         <v>32</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F135" s="5">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16999,10 +17003,10 @@
         <v>32</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F136" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>54</v>
@@ -17019,13 +17023,13 @@
         <v>32</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F137" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17039,13 +17043,13 @@
         <v>32</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F138" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="139" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17059,13 +17063,13 @@
         <v>32</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F139" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="140" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17079,13 +17083,13 @@
         <v>32</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F140" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17099,13 +17103,13 @@
         <v>32</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F141" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="142" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17119,13 +17123,13 @@
         <v>32</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F142" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17139,13 +17143,13 @@
         <v>32</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F143" s="5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17159,10 +17163,10 @@
         <v>32</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F144" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>63</v>
@@ -17179,13 +17183,13 @@
         <v>32</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F145" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="146" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17199,13 +17203,13 @@
         <v>32</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F146" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="147" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17219,13 +17223,13 @@
         <v>32</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F147" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17239,13 +17243,13 @@
         <v>32</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F148" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17259,13 +17263,13 @@
         <v>32</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F149" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17279,13 +17283,13 @@
         <v>32</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F150" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="151" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17299,13 +17303,13 @@
         <v>32</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F151" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17319,13 +17323,13 @@
         <v>32</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F152" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="153" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17339,13 +17343,13 @@
         <v>32</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F153" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17359,13 +17363,13 @@
         <v>32</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F154" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17379,13 +17383,13 @@
         <v>32</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F155" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17399,13 +17403,13 @@
         <v>32</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F156" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17419,13 +17423,13 @@
         <v>32</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F157" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="158" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17439,13 +17443,13 @@
         <v>32</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F158" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="159" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17459,13 +17463,13 @@
         <v>32</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F159" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="160" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17479,13 +17483,13 @@
         <v>32</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F160" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="161" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17499,13 +17503,13 @@
         <v>32</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F161" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17519,13 +17523,13 @@
         <v>32</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F162" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="163" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17539,13 +17543,13 @@
         <v>32</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F163" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="164" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17562,10 +17566,10 @@
         <v>46</v>
       </c>
       <c r="F164" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17579,13 +17583,13 @@
         <v>32</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F165" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17599,13 +17603,13 @@
         <v>32</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F166" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17619,13 +17623,13 @@
         <v>32</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F167" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="168" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17639,13 +17643,13 @@
         <v>32</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F168" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17659,10 +17663,10 @@
         <v>32</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F169" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>61</v>
@@ -17679,13 +17683,13 @@
         <v>32</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F170" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="171" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17699,13 +17703,13 @@
         <v>32</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F171" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17719,13 +17723,13 @@
         <v>32</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F172" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="173" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17739,13 +17743,13 @@
         <v>32</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F173" s="5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17759,13 +17763,13 @@
         <v>32</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F174" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17779,13 +17783,13 @@
         <v>32</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F175" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="176" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17799,13 +17803,13 @@
         <v>32</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F176" s="5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17819,13 +17823,13 @@
         <v>32</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F177" s="5">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="178" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17839,13 +17843,13 @@
         <v>32</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F178" s="5">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17859,13 +17863,13 @@
         <v>32</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F179" s="5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17879,13 +17883,13 @@
         <v>32</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F180" s="5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17899,13 +17903,13 @@
         <v>32</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F181" s="5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="182" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17919,13 +17923,13 @@
         <v>32</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F182" s="5">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17939,13 +17943,13 @@
         <v>32</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F183" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="184" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17959,13 +17963,13 @@
         <v>32</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F184" s="5">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="185" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17979,13 +17983,13 @@
         <v>32</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F185" s="5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="186" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17999,13 +18003,13 @@
         <v>32</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F186" s="5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="187" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18019,13 +18023,13 @@
         <v>32</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F187" s="5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18039,13 +18043,13 @@
         <v>32</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F188" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18059,13 +18063,13 @@
         <v>32</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F189" s="5">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="190" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18079,13 +18083,13 @@
         <v>32</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F190" s="5">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="191" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18099,13 +18103,13 @@
         <v>32</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F191" s="5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="192" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18119,10 +18123,10 @@
         <v>32</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F192" s="5">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>61</v>
@@ -18139,13 +18143,13 @@
         <v>32</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F193" s="5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="194" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18159,13 +18163,13 @@
         <v>32</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F194" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="195" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18179,13 +18183,13 @@
         <v>32</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F195" s="5">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="196" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18199,13 +18203,13 @@
         <v>32</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F196" s="5">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="197" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18219,13 +18223,13 @@
         <v>32</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F197" s="5">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18239,13 +18243,13 @@
         <v>32</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F198" s="5">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="199" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18259,13 +18263,13 @@
         <v>32</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F199" s="5">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18279,13 +18283,13 @@
         <v>32</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F200" s="5">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="201" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18299,13 +18303,13 @@
         <v>32</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F201" s="5">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18319,13 +18323,13 @@
         <v>32</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F202" s="5">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="203" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18339,13 +18343,13 @@
         <v>32</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F203" s="5">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="204" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18359,13 +18363,13 @@
         <v>32</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F204" s="5">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="205" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18379,13 +18383,13 @@
         <v>32</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F205" s="5">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="206" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18399,13 +18403,13 @@
         <v>32</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F206" s="5">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="207" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18419,13 +18423,13 @@
         <v>32</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F207" s="5">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="208" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18439,13 +18443,13 @@
         <v>32</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F208" s="5">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="209" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18459,13 +18463,13 @@
         <v>32</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F209" s="5">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="210" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18479,13 +18483,13 @@
         <v>32</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F210" s="5">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="211" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18499,13 +18503,13 @@
         <v>32</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F211" s="5">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="212" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18519,13 +18523,13 @@
         <v>32</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F212" s="5">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="213" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18539,13 +18543,13 @@
         <v>32</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F213" s="5">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="214" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18559,13 +18563,13 @@
         <v>32</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F214" s="5">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="215" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18579,13 +18583,13 @@
         <v>32</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F215" s="5">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="216" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18599,13 +18603,13 @@
         <v>32</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F216" s="5">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="217" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18619,13 +18623,13 @@
         <v>32</v>
       </c>
       <c r="E217" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F217" s="5">
         <v>50</v>
       </c>
-      <c r="F217" s="5">
-        <v>1</v>
-      </c>
       <c r="G217" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="218" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18639,10 +18643,10 @@
         <v>32</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F218" s="5">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="G218" s="4" t="s">
         <v>66</v>
@@ -18659,13 +18663,13 @@
         <v>32</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F219" s="5">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="220" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18679,13 +18683,13 @@
         <v>32</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F220" s="5">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="221" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18699,13 +18703,13 @@
         <v>32</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F221" s="5">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="222" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18719,13 +18723,13 @@
         <v>32</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F222" s="5">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="223" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18739,13 +18743,13 @@
         <v>32</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F223" s="5">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="224" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18759,13 +18763,13 @@
         <v>32</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F224" s="5">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="225" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18779,10 +18783,10 @@
         <v>32</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F225" s="5">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="G225" s="4" t="s">
         <v>58</v>
@@ -18799,13 +18803,13 @@
         <v>32</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F226" s="5">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="227" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18819,13 +18823,13 @@
         <v>32</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F227" s="5">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="228" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18839,13 +18843,13 @@
         <v>32</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F228" s="5">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="229" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18859,13 +18863,13 @@
         <v>32</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F229" s="5">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="230" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18879,13 +18883,13 @@
         <v>32</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F230" s="5">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="231" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18899,13 +18903,13 @@
         <v>32</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F231" s="5">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="232" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18919,13 +18923,13 @@
         <v>32</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F232" s="5">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="233" spans="2:7" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18939,17 +18943,20 @@
         <v>32</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F233" s="5">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="234" spans="2:7" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G234">
+    <sortCondition ref="F3:F234"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -18962,7 +18969,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -19162,7 +19169,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" customWidth="1"/>
@@ -23775,7 +23782,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
